--- a/data_xlsx/美国_国债收益率_3个月.xlsx
+++ b/data_xlsx/美国_国债收益率_3个月.xlsx
@@ -33226,8 +33226,184 @@
         <v>5.51</v>
       </c>
     </row>
+    <row r="4144">
+      <c r="A4144" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B4144" s="2" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
     <row r="4145">
-      <c r="A4145" s="3" t="inlineStr">
+      <c r="A4145" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B4145" s="2" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B4146" s="2" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B4147" s="2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B4148" s="2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B4149" s="2" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B4150" s="2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B4151" s="2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B4152" s="2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B4153" s="2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B4154" s="2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B4155" s="2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B4156" s="2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B4157" s="2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B4158" s="2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B4159" s="2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B4160" s="2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B4161" s="2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B4162" s="2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B4163" s="2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B4164" s="2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4165">
+      <c r="A4165" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B4165" s="2" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
